--- a/biology/Zoologie/Chlorophorus_herbstii/Chlorophorus_herbstii.xlsx
+++ b/biology/Zoologie/Chlorophorus_herbstii/Chlorophorus_herbstii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorophorus herbstii est une espèce d'insectes coléoptères de la famille des Cerambycidae, sous-famille des Cerambycinae, de la tribu des Clytini et du genre Chlorophorus.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago mesure entre 8 et 15 mm de long. La pubescence est verte ou jaune-vert. Les élytres sont tachés de bandes noires qui n'atteignent pas la suture.
 </t>
@@ -542,10 +556,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
-Europe (Espagne, France, Croatie, Bosnie-Herzégovine, Serbie, Bulgarie, Roumanie, Hongrie, Autriche, Suisse, Allemagne, Tchéquie, Slovaquie, Norvège, Pologne, Suède, Finlande, Estonie, Lettonie, Lituanie, Biélorussie, Ukraine, Crimée, Moldavie), Sibérie, Kazakhstan, Caucase, Turquie[1].
+Europe (Espagne, France, Croatie, Bosnie-Herzégovine, Serbie, Bulgarie, Roumanie, Hongrie, Autriche, Suisse, Allemagne, Tchéquie, Slovaquie, Norvège, Pologne, Suède, Finlande, Estonie, Lettonie, Lituanie, Biélorussie, Ukraine, Crimée, Moldavie), Sibérie, Kazakhstan, Caucase, Turquie.
 Habitat
 L'adulte est visible entre mai et septembre dans les broussailles et les lieux chauds. Il est rare.</t>
         </is>
@@ -575,9 +591,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les larves se développent dans le bois mort des feuillus (surtout les tilleuls) et notamment ceux que les scolytes ont fait périr[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves se développent dans le bois mort des feuillus (surtout les tilleuls) et notamment ceux que les scolytes ont fait périr.
 </t>
         </is>
       </c>
@@ -606,11 +624,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par le zoologiste allemand Brahm en 1790 sous le nom initial de Leptura varia[1].
-Synonymie
-Callidium verbasci
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par le zoologiste allemand Brahm en 1790 sous le nom initial de Leptura varia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chlorophorus_herbstii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorophorus_herbstii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Callidium verbasci
 Clytus quinque-maculatus
 Leptura herbstii
 Anthoboscus herbsti</t>
